--- a/自动化测试脚本/接口自动化excel版/data/测试数据.xlsx
+++ b/自动化测试脚本/接口自动化excel版/data/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="35">
   <si>
     <t>api_name</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>{"appPeriod":"24","appAmount":"200000","interfaceNo":"1118","frontTransNo":"20200113144326994","sysSource":"4","busiCode":"CSB18","telephone":"17631508833","position":"","frontTransTime":"2020-01-13 14:43:26","custmerManger":"11037385","telemarketing":"0"}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>2021-02-01 13-53-51</t>
   </si>
   <si>
     <t>1026</t>
@@ -97,7 +103,7 @@
   <si>
     <t>{
   "responseBody" : {
-    "retTime" : "2021-02-01 11:35:53",
+    "retTime" : "2021-02-01 13:51:45",
     "retCode" : "200",
     "retMsg" : "操作成功！",
     "loanTransNo" : "0000000001",
@@ -111,16 +117,44 @@
 }</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>2021-02-01 11-35-41</t>
+    <t>2021-02-01 13-51-33</t>
   </si>
   <si>
     <t>{
   "responseBody" : null,
   "retCode" : "500",
   "errorDesc" : "JSON parse error: Can not construct instance of com.jy.modules.coreinterface.interface2062.Interface2062Request: no String-argument constructor/factory method to deserialize from String value ('{\"interfaceNo\":\"1026\",\"depositCode\":\"02\",\"frontTransNo\":\"20210105143612269\",\"sysSource\":\"1\",\"busiCode\":\"CSB26\",\"cardId\":\"65210119860216133X\",\"cardType\":\"1\",\"custCode\":\"\",\"frontTransTime\":\"2021-01-05 14:36:12\",\"subsidiaryCode\":\"JYJF\"}'); nested exception is com.fasterxml.jackson.databind.JsonMappingException: Can not construct instance of com.jy.modules.coreinterface.interface2062.Interface2062Request: no String-argument constructor/factory method to deserialize from String value ('{\"interfaceNo\":\"1026\",\"depositCode\":\"02\",\"frontTransNo\":\"20210105143612269\",\"sysSource\":\"1\",\"busiCode\":\"CSB26\",\"cardId\":\"65210119860216133X\",\"cardType\":\"1\",\"custCode\":\"\",\"frontTransTime\":\"2021-01-05 14:36:12\",\"subsidiaryCode\":\"JYJF\"}')\n at [Source: java.io.PushbackInputStream@6de9444d; line: 1, column: 1]"
+}</t>
+  </si>
+  <si>
+    <t>2021-02-01 11-35-41</t>
+  </si>
+  <si>
+    <t>{
+  "responseBody" : {
+    "retTime" : "2021-02-01 13:51:45",
+    "retCode" : "200",
+    "retMsg" : "绑卡信息查询成功！",
+    "coreTransNo" : "2062202102011351457885515",
+    "frontTransNo" : "20210105143612269",
+    "interfaceNo" : "1026",
+    "busiCode" : "CSB26",
+    "cardList" : [ {
+      "custCode" : "CR19081800000289",
+      "bankCardNo" : "6214830112258910",
+      "custName" : "买买提江·肉孜",
+      "bankCode" : "308",
+      "acctPhone" : "13810957727",
+      "acctProv" : null,
+      "acctCity" : null,
+      "acctBrchName" : null,
+      "acctCardType" : "1",
+      "acctCardId" : "65210119860216133X"
+    } ],
+    "loanTransNo" : "2062202102011351457885515"
+  },
+  "retCode" : "200",
+  "errorDesc" : null
 }</t>
   </si>
   <si>
@@ -181,6 +215,61 @@
   <si>
     <t>{
   "responseBody" : {
+    "retTime" : "2021-02-01 13:51:46",
+    "retCode" : "200",
+    "retMsg" : "查找成功",
+    "loanTransNo" : "0000000001",
+    "frontTransNo" : "20210105143601399",
+    "interfaceNo" : "1050",
+    "busiCode" : "CSB50",
+    "totalRows" : 0,
+    "curPage" : 1,
+    "pageSize" : 20,
+    "totalPages" : 0,
+    "totalBalance" : 7530,
+    "useBalance" : 6510,
+    "dataList" : [ {
+      "intoAppId" : "120154817998",
+      "auditeState" : "09",
+      "appAmount" : 50000,
+      "applyPeriod" : "48",
+      "appDate" : 1566823046827,
+      "apprAmount" : 81000,
+      "apprDate" : 1566961308000,
+      "apprPeriod" : "48",
+      "loanAmount" : 43013.47,
+      "loanDate" : 1573660800000,
+      "loanPeriod" : "48",
+      "curPeriod" : "4",
+      "signAmount" : 81000,
+      "contractNo" : "20191111D1206J200",
+      "monthPayment" : 1920.16,
+      "intoDevice" : "4",
+      "oneRefuseReason" : null,
+      "twoRefuseReason" : null,
+      "remark" : null,
+      "timeInterval" : null,
+      "backState" : null,
+      "instantFlag" : "0",
+      "isAssistInto" : "1",
+      "generalYearFundCost" : "15.17",
+      "overdueTerm" : "0",
+      "overdueAmt" : 0,
+      "payDate" : 1586793600000,
+      "signType" : "0",
+      "isContract" : "1",
+      "payoffDate" : null,
+      "contractSource" : "0"
+    } ],
+    "realFundAmt" : 43013.47
+  },
+  "retCode" : "200",
+  "errorDesc" : "查找成功"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "responseBody" : {
     "retTime" : null,
     "retCode" : "200",
     "retMsg" : "查询成功！",
@@ -369,20 +458,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -390,6 +465,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -400,6 +489,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,61 +531,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +597,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,7 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,85 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -711,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,8 +1294,8 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1214,6 +1303,7 @@
     <col min="3" max="3" width="52.75" style="3" customWidth="1"/>
     <col min="4" max="5" width="38.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="77.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1248,7 +1338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="54" customHeight="1" spans="1:8">
+    <row r="2" ht="54" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1267,13 +1357,22 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H2">
         <v>200</v>
       </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" ht="54" customHeight="1" spans="1:8">
+    <row r="3" ht="54" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1285,18 +1384,27 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H3">
         <v>200</v>
       </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:8">
+    <row r="4" ht="54" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1308,18 +1416,27 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H4">
         <v>200</v>
       </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" ht="54" customHeight="1" spans="1:8">
+    <row r="5" ht="54" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1331,13 +1448,22 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H5">
         <v>200</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1426,16 +1552,16 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1451,13 +1577,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="4" max="4" width="48.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.625" style="1" customWidth="1"/>
@@ -1498,7 +1624,7 @@
     </row>
     <row r="2" ht="54" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1510,22 +1636,33 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="7:10">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1541,13 +1678,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="4" max="4" width="47.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="63.875" style="1" customWidth="1"/>
@@ -1591,7 +1728,7 @@
     </row>
     <row r="2" ht="54" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1603,22 +1740,33 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="7:10">
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1633,18 +1781,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="4" max="4" width="41.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="80" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.625" customWidth="1"/>
+    <col min="7" max="7" width="37.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1681,7 +1829,7 @@
     </row>
     <row r="2" ht="408" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1693,22 +1841,33 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10">
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/自动化测试脚本/接口自动化excel版/data/测试数据.xlsx
+++ b/自动化测试脚本/接口自动化excel版/data/测试数据.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1118" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1026" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1050" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1051" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="all" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1118" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1026" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1051" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -35,7 +30,7 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
@@ -43,336 +38,20 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -380,251 +59,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -633,7 +73,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -643,58 +83,79 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -979,11 +440,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -994,12 +456,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="52.75" customWidth="1" style="3" min="3" max="3"/>
-    <col width="38.875" customWidth="1" style="1" min="4" max="5"/>
-    <col width="77.125" customWidth="1" style="1" min="6" max="6"/>
-    <col width="42.5" customWidth="1" style="1" min="7" max="7"/>
+    <col width="52.77734375" customWidth="1" style="3" min="3" max="3"/>
+    <col width="38.88671875" customWidth="1" style="1" min="4" max="5"/>
+    <col width="77.109375" customWidth="1" style="1" min="6" max="6"/>
+    <col width="42.44140625" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1256,10 +718,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" display="http://loan-api-link.asset.jc4.jieyue.com" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" display="http://loan-api-link.asset.jc4.jieyue.com" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" display="http://loan-api-link.asset.jc4.jieyue.com" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" display="http://loan-api-link.asset.jc4.jieyue.com" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1267,27 +729,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="14.5" customWidth="1" style="1" min="1" max="1"/>
-    <col width="17.75" customWidth="1" style="1" min="2" max="3"/>
-    <col width="44.25" customWidth="1" style="1" min="4" max="4"/>
-    <col width="49.75" customWidth="1" style="1" min="5" max="5"/>
-    <col width="35.875" customWidth="1" style="1" min="6" max="6"/>
-    <col width="26.375" customWidth="1" style="1" min="7" max="7"/>
+    <col width="14.44140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="17.77734375" customWidth="1" style="1" min="2" max="3"/>
+    <col width="44.21875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="49.77734375" customWidth="1" style="1" min="5" max="5"/>
+    <col width="35.88671875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="26.33203125" customWidth="1" style="1" min="7" max="7"/>
     <col width="16" customWidth="1" style="1" min="8" max="8"/>
-    <col width="19.5" customWidth="1" style="1" min="9" max="9"/>
+    <col width="19.44140625" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1377,7 +839,7 @@
         <is>
           <t>{
   "responseBody" : {
-    "retTime" : "2021-02-05 17:26:22",
+    "retTime" : "2021-04-06 18:25:47",
     "retCode" : "200",
     "retMsg" : "操作成功！",
     "loanTransNo" : "0000000001",
@@ -1401,13 +863,13 @@
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>2021-02-05 17-26-10</t>
+          <t>2021-04-06 18-25-45</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" display="http://loan-api-link.asset.jc4.jieyue.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1415,7 +877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1426,12 +888,12 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="48.875" customWidth="1" style="1" min="4" max="4"/>
-    <col width="59.625" customWidth="1" style="1" min="5" max="5"/>
-    <col width="77.625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="31.875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="48.88671875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="59.6640625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="77.6640625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="31.88671875" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1522,7 +984,7 @@
           <t>{
   "responseBody" : null,
   "retCode" : "500",
-  "errorDesc" : "JSON parse error: Can not construct instance of com.jy.modules.coreinterface.interface2062.Interface2062Request: no String-argument constructor/factory method to deserialize from String value ('{\"interfaceNo\":\"1026\",\"depositCode\":\"02\",\"frontTransNo\":\"20210105143612269\",\"sysSource\":\"1\",\"busiCode\":\"CSB26\",\"cardId\":\"65210119860216133X\",\"cardType\":\"1\",\"custCode\":\"\",\"frontTransTime\":\"2021-01-05 14:36:12\",\"subsidiaryCode\":\"JYJF\"}'); nested exception is com.fasterxml.jackson.databind.JsonMappingException: Can not construct instance of com.jy.modules.coreinterface.interface2062.Interface2062Request: no String-argument constructor/factory method to deserialize from String value ('{\"interfaceNo\":\"1026\",\"depositCode\":\"02\",\"frontTransNo\":\"20210105143612269\",\"sysSource\":\"1\",\"busiCode\":\"CSB26\",\"cardId\":\"65210119860216133X\",\"cardType\":\"1\",\"custCode\":\"\",\"frontTransTime\":\"2021-01-05 14:36:12\",\"subsidiaryCode\":\"JYJF\"}')\n at [Source: java.io.PushbackInputStream@3b617372; line: 1, column: 1]"
+  "errorDesc" : "JSON parse error: Can not construct instance of com.jy.modules.coreinterface.interface2062.Interface2062Request: no String-argument constructor/factory method to deserialize from String value ('{\"interfaceNo\":\"1026\",\"depositCode\":\"02\",\"frontTransNo\":\"20210105143612269\",\"sysSource\":\"1\",\"busiCode\":\"CSB26\",\"cardId\":\"65210119860216133X\",\"cardType\":\"1\",\"custCode\":\"\",\"frontTransTime\":\"2021-01-05 14:36:12\",\"subsidiaryCode\":\"JYJF\"}'); nested exception is com.fasterxml.jackson.databind.JsonMappingException: Can not construct instance of com.jy.modules.coreinterface.interface2062.Interface2062Request: no String-argument constructor/factory method to deserialize from String value ('{\"interfaceNo\":\"1026\",\"depositCode\":\"02\",\"frontTransNo\":\"20210105143612269\",\"sysSource\":\"1\",\"busiCode\":\"CSB26\",\"cardId\":\"65210119860216133X\",\"cardType\":\"1\",\"custCode\":\"\",\"frontTransTime\":\"2021-01-05 14:36:12\",\"subsidiaryCode\":\"JYJF\"}')\n at [Source: java.io.PushbackInputStream@5bd1f60b; line: 1, column: 1]"
 }</t>
         </is>
       </c>
@@ -1536,13 +998,13 @@
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>2021-02-05 17-26-10</t>
+          <t>2021-04-06 18-25-45</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" display="http://loan-api-link.asset.jc4.jieyue.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1550,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1561,14 +1023,14 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="47.25" customWidth="1" style="1" min="4" max="4"/>
-    <col width="63.875" customWidth="1" style="1" min="5" max="5"/>
-    <col width="78.125" customWidth="1" style="1" min="6" max="7"/>
-    <col width="11.125" customWidth="1" style="1" min="8" max="8"/>
-    <col width="18.375" customWidth="1" style="1" min="9" max="9"/>
-    <col width="78.125" customWidth="1" style="1" min="10" max="18"/>
+    <col width="47.21875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="63.88671875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="78.109375" customWidth="1" style="1" min="6" max="7"/>
+    <col width="11.109375" customWidth="1" style="1" min="8" max="8"/>
+    <col width="18.33203125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="78.109375" customWidth="1" style="1" min="10" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1658,7 +1120,7 @@
         <is>
           <t>{
   "responseBody" : {
-    "retTime" : "2021-02-05 17:26:21",
+    "retTime" : "2021-04-06 18:25:46",
     "retCode" : "200",
     "retMsg" : "查找成功",
     "loanTransNo" : "0000000001",
@@ -1721,7 +1183,7 @@
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>2021-02-05 17-26-10</t>
+          <t>2021-04-06 18-25-45</t>
         </is>
       </c>
     </row>
@@ -1732,30 +1194,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" display="http://loan-api-link.asset.jc4.jieyue.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="41.375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="47.875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="41.33203125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="47.88671875" customWidth="1" style="1" min="5" max="5"/>
     <col width="80" customWidth="1" style="1" min="6" max="6"/>
-    <col width="37.625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="37.6640625" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1902,7 +1364,7 @@
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>2021-02-05 17-26-10</t>
+          <t>2021-04-06 18-25-45</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1373,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" display="http://loan-api-link.asset.jc4.jieyue.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
